--- a/REGISTRO_CISTERNAS_JCM.xlsx
+++ b/REGISTRO_CISTERNAS_JCM.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="118">
   <si>
     <t xml:space="preserve">SERVICIO </t>
   </si>
@@ -327,6 +327,72 @@
   </si>
   <si>
     <t>001-114182</t>
+  </si>
+  <si>
+    <t>2155ERS</t>
+  </si>
+  <si>
+    <t>BW12127</t>
+  </si>
+  <si>
+    <t>001-113996</t>
+  </si>
+  <si>
+    <t>001-113915</t>
+  </si>
+  <si>
+    <t>001-114178</t>
+  </si>
+  <si>
+    <t>001-114183</t>
+  </si>
+  <si>
+    <t>001-113951</t>
+  </si>
+  <si>
+    <t>001-113941</t>
+  </si>
+  <si>
+    <t>001-113946</t>
+  </si>
+  <si>
+    <t>001-113901</t>
+  </si>
+  <si>
+    <t>001-113960</t>
+  </si>
+  <si>
+    <t>001-114180</t>
+  </si>
+  <si>
+    <t>3105UNS</t>
+  </si>
+  <si>
+    <t>BK04789</t>
+  </si>
+  <si>
+    <t>001-114185</t>
+  </si>
+  <si>
+    <t>001-113961</t>
+  </si>
+  <si>
+    <t>4289YYI</t>
+  </si>
+  <si>
+    <t>BG05504</t>
+  </si>
+  <si>
+    <t>001-113942</t>
+  </si>
+  <si>
+    <t>001-113956</t>
+  </si>
+  <si>
+    <t>001-114184</t>
+  </si>
+  <si>
+    <t>001-114179</t>
   </si>
 </sst>
 </file>
@@ -539,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +756,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,11 +1428,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,18 +1447,19 @@
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.28515625" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1421,8 +1492,10 @@
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
       <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="1:28" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1451,8 +1524,10 @@
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+    </row>
+    <row r="3" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -1476,9 +1551,9 @@
       <c r="O3" s="37">
         <v>44793</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -1489,8 +1564,10 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
@@ -1519,15 +1596,15 @@
         <v>23</v>
       </c>
       <c r="P4" s="33"/>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="27">
+      <c r="T4" s="27">
         <f>COUNT(B7:B26)</f>
-        <v>4</v>
-      </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+        <v>6</v>
+      </c>
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
@@ -1536,8 +1613,10 @@
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
-    </row>
-    <row r="5" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" spans="1:30" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="31" t="s">
@@ -1560,14 +1639,14 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="T5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
@@ -1576,8 +1655,10 @@
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
-    </row>
-    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1615,9 +1696,9 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -1626,8 +1707,10 @@
       <c r="Z6" s="29"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1671,27 +1754,29 @@
         <v>39</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="45" t="str">
-        <f>CONCATENATE(COUNTA(K7:P7),(" Precintos"))</f>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="45" t="str">
+        <f>CONCATENATE(COUNTA(K7:R7),(" Precintos"))</f>
         <v>4 Precintos</v>
       </c>
-      <c r="R7" s="5">
-        <f>'20-Ago-22'!R15</f>
+      <c r="T7" s="5">
+        <f>'20-Ago-22'!T15</f>
         <v>0</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1735,14 +1820,14 @@
         <v>43</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="45" t="str">
-        <f t="shared" ref="Q8:Q26" si="0">CONCATENATE(COUNTA(K8:P8),(" Precintos"))</f>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="45" t="str">
+        <f t="shared" ref="S8:S15" si="0">CONCATENATE(COUNTA(K8:R8),(" Precintos"))</f>
         <v>4 Precintos</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
@@ -1751,8 +1836,10 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1796,17 +1883,17 @@
         <v>48</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="45" t="str">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="45" t="str">
         <f t="shared" si="0"/>
         <v>4 Precintos</v>
       </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R8:R10" si="1">IF(H9="X",J9-E9,H9-E9)</f>
+      <c r="T9" s="5">
+        <f t="shared" ref="T8:T10" si="1">IF(H9="X",J9-E9,H9-E9)</f>
         <v>25150</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -1815,8 +1902,10 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1860,17 +1949,17 @@
         <v>53</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="45" t="str">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="45" t="str">
         <f t="shared" si="0"/>
         <v>4 Precintos</v>
       </c>
-      <c r="R10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="1"/>
         <v>26580</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1879,8 +1968,10 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1898,14 +1989,14 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="45" t="str">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="45" t="str">
         <f t="shared" si="0"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1914,8 +2005,10 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1933,14 +2026,14 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="45" t="str">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="45" t="str">
         <f t="shared" si="0"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1949,8 +2042,10 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1968,14 +2063,14 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="45" t="str">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="45" t="str">
         <f t="shared" si="0"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1984,8 +2079,10 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1995,22 +2092,26 @@
       <c r="E14" s="5"/>
       <c r="F14" s="46"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="45">
+        <v>44050</v>
+      </c>
       <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="45" t="str">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="45" t="str">
         <f t="shared" si="0"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -2019,33 +2120,57 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
+      <c r="B15" s="4">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13280</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="G15" s="45">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="45">
+        <v>40860</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>0 Precintos</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="P15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="45" t="str">
+        <f>CONCATENATE(COUNTA(K15:R15),(" Precintos"))</f>
+        <v>2 Precintos</v>
+      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -2054,33 +2179,61 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="B16" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="5">
+        <v>17480</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="G16" s="45">
+        <v>8500</v>
+      </c>
+      <c r="H16" s="45">
+        <v>44450</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>0 Precintos</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="45" t="str">
+        <f t="shared" ref="S16:S26" si="2">CONCATENATE(COUNTA(K16:R16),(" Precintos"))</f>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T16" s="5"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -2089,8 +2242,10 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2108,14 +2263,14 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -2124,8 +2279,10 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2143,14 +2300,14 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -2159,8 +2316,10 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2178,14 +2337,14 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -2194,8 +2353,10 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -2213,14 +2374,14 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -2229,8 +2390,10 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -2248,14 +2411,14 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -2264,8 +2427,10 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -2283,14 +2448,14 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="T22" s="5"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -2299,8 +2464,10 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>17</v>
       </c>
@@ -2318,14 +2485,14 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -2334,8 +2501,10 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>18</v>
       </c>
@@ -2353,14 +2522,14 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -2369,8 +2538,10 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -2388,14 +2559,14 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -2404,8 +2575,10 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -2423,14 +2596,14 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="45" t="str">
-        <f t="shared" si="0"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>0 Precintos</v>
       </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="T26" s="5"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -2439,8 +2612,10 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -2456,11 +2631,11 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -2469,8 +2644,10 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="41" t="s">
         <v>16</v>
@@ -2491,8 +2668,8 @@
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
@@ -2501,8 +2678,10 @@
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
@@ -2521,8 +2700,8 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -2531,11 +2710,11 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
@@ -2544,11 +2723,11 @@
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
@@ -2557,8 +2736,10 @@
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2571,8 +2752,6 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -2581,8 +2760,10 @@
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="C33" t="s">
         <v>17</v>
@@ -2599,8 +2780,6 @@
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -2609,8 +2788,10 @@
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -2626,11 +2807,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -2639,8 +2820,10 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -2656,11 +2839,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
@@ -2669,8 +2852,10 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
@@ -2686,11 +2871,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -2699,34 +2884,36 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:R2"/>
-    <mergeCell ref="S1:AB6"/>
+    <mergeCell ref="M1:T2"/>
+    <mergeCell ref="U1:AD6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:R29"/>
+    <mergeCell ref="E28:T29"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="K5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -2743,7 +2930,8 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection activeCell="F23" activeCellId="1" sqref="Q7 F23"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="1" sqref="Q7 F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,11 +4131,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,18 +4150,19 @@
     <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.28515625" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -4005,8 +4195,10 @@
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
       <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="1:28" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4035,8 +4227,10 @@
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+    </row>
+    <row r="3" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -4060,9 +4254,9 @@
       <c r="O3" s="37">
         <v>44795</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -4073,8 +4267,10 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
@@ -4103,15 +4299,15 @@
         <v>23</v>
       </c>
       <c r="P4" s="33"/>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="27">
+      <c r="T4" s="27">
         <f>COUNTA(C7:C26)</f>
-        <v>7</v>
-      </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+        <v>10</v>
+      </c>
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
@@ -4120,8 +4316,10 @@
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
-    </row>
-    <row r="5" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" spans="1:30" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="31" t="s">
@@ -4144,14 +4342,14 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="T5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
@@ -4160,8 +4358,10 @@
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4199,9 +4399,9 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -4210,8 +4410,10 @@
       <c r="Z6" s="29"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4255,26 +4457,29 @@
         <v>61</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8">
-        <v>4</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8" t="str">
+        <f>CONCATENATE(COUNTA(K7:R7),(" Precintos"))</f>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T7" s="5">
         <f>IF(H7="X",J7-E7,H7-E7)</f>
         <v>26620</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4318,16 +4523,17 @@
         <v>66</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8">
-        <v>4</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" ref="R8:R13" si="0">IF(H8="X",J8-E8,H8-E8)</f>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8" t="str">
+        <f t="shared" ref="S8:S15" si="0">CONCATENATE(COUNTA(K8:R8),(" Precintos"))</f>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" ref="T8:T26" si="1">IF(H8="X",J8-E8,H8-E8)</f>
         <v>27210</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
@@ -4336,8 +4542,10 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -4381,16 +4589,17 @@
         <v>70</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8">
-        <v>4</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="1"/>
         <v>27860</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -4399,8 +4608,10 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -4444,16 +4655,17 @@
         <v>88</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8">
-        <v>4</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="1"/>
         <v>27240</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -4462,8 +4674,10 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -4507,16 +4721,17 @@
         <v>81</v>
       </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8">
-        <v>4</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="1"/>
         <v>28180</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -4525,8 +4740,10 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4570,16 +4787,17 @@
         <v>87</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8">
-        <v>4</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="1"/>
         <v>28520</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -4588,8 +4806,10 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -4633,16 +4853,17 @@
         <v>95</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8">
-        <v>4</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="8" t="str">
         <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="1"/>
         <v>25160</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -4651,30 +4872,64 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="B14" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="5">
+        <v>16140</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="G14" s="6">
+        <v>8800</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44050</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="1"/>
+        <v>27910</v>
+      </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -4683,30 +4938,72 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="B15" s="4">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13280</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="6">
+        <v>40860</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="8" t="str">
+        <f>CONCATENATE(COUNTA(K15:R15),(" Precintos"))</f>
+        <v>8 Precintos</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="1"/>
+        <v>27580</v>
+      </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -4715,30 +5012,64 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="B16" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="5">
+        <v>17480</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8500</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44450</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8" t="str">
+        <f t="shared" ref="S16:S26" si="2">CONCATENATE(COUNTA(K16:R16),(" Precintos"))</f>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="1"/>
+        <v>26970</v>
+      </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -4747,8 +5078,10 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4766,11 +5099,14 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T17" s="5"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -4779,8 +5115,10 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4798,11 +5136,14 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T18" s="5"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -4811,8 +5152,10 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4830,11 +5173,14 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -4843,8 +5189,10 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -4862,11 +5210,14 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T20" s="5"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -4875,8 +5226,10 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -4894,11 +5247,14 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T21" s="5"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -4907,8 +5263,10 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -4926,11 +5284,14 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T22" s="5"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -4939,8 +5300,10 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>17</v>
       </c>
@@ -4958,11 +5321,14 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T23" s="5"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -4971,8 +5337,10 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>18</v>
       </c>
@@ -4990,11 +5358,14 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T24" s="5"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -5003,8 +5374,10 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -5022,11 +5395,14 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T25" s="5"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -5035,8 +5411,10 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -5054,11 +5432,14 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T26" s="5"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -5067,8 +5448,10 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -5084,11 +5467,11 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -5097,8 +5480,10 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="41" t="s">
         <v>16</v>
@@ -5119,8 +5504,8 @@
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
@@ -5129,8 +5514,10 @@
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
@@ -5149,8 +5536,8 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -5159,11 +5546,11 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
@@ -5172,11 +5559,11 @@
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
@@ -5185,8 +5572,10 @@
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5199,8 +5588,6 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -5209,8 +5596,10 @@
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="C33" t="s">
         <v>17</v>
@@ -5227,8 +5616,6 @@
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -5237,8 +5624,10 @@
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -5254,11 +5643,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -5267,8 +5656,10 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -5284,11 +5675,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
@@ -5297,8 +5688,10 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
@@ -5314,11 +5707,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -5327,34 +5720,36 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:R2"/>
-    <mergeCell ref="S1:AB6"/>
+    <mergeCell ref="M1:T2"/>
+    <mergeCell ref="U1:AD6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:R29"/>
+    <mergeCell ref="E28:T29"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="K5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -5367,11 +5762,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5385,18 +5781,19 @@
     <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.28515625" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5429,8 +5826,10 @@
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
       <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="1:28" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -5459,8 +5858,10 @@
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+    </row>
+    <row r="3" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
@@ -5484,9 +5885,9 @@
       <c r="O3" s="37">
         <v>44796</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
@@ -5497,8 +5898,10 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
@@ -5527,12 +5930,12 @@
         <v>23</v>
       </c>
       <c r="P4" s="33"/>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="T4" s="27"/>
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
@@ -5541,8 +5944,10 @@
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
-    </row>
-    <row r="5" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" spans="1:30" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="31" t="s">
@@ -5565,14 +5970,14 @@
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="T5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
@@ -5581,8 +5986,10 @@
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5620,9 +6027,9 @@
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -5631,8 +6038,10 @@
       <c r="Z6" s="29"/>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -5650,21 +6059,26 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8" t="str">
+        <f>CONCATENATE(COUNTA(K7:R7),(" Precintos"))</f>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -5682,11 +6096,14 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8" t="str">
+        <f t="shared" ref="S8:S15" si="0">CONCATENATE(COUNTA(K8:R8),(" Precintos"))</f>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T8" s="5"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
@@ -5695,8 +6112,10 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -5714,11 +6133,14 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T9" s="5"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -5727,8 +6149,10 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -5746,11 +6170,14 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -5759,8 +6186,10 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -5778,11 +6207,14 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -5791,8 +6223,10 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -5810,11 +6244,14 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T12" s="5"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -5823,8 +6260,10 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -5842,11 +6281,14 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T13" s="5"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -5855,8 +6297,10 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -5866,19 +6310,26 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>44050</v>
+      </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T14" s="5"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -5887,30 +6338,57 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="4">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5">
+        <v>13280</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.86319444444444438</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="6">
+        <v>40860</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="P15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8" t="str">
+        <f>CONCATENATE(COUNTA(K15:R15),(" Precintos"))</f>
+        <v>2 Precintos</v>
+      </c>
+      <c r="T15" s="5"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -5919,30 +6397,61 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="B16" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="5">
+        <v>17480</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.89097222222222217</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8500</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44450</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="8" t="str">
+        <f t="shared" ref="S16:S26" si="1">CONCATENATE(COUNTA(K16:R16),(" Precintos"))</f>
+        <v>4 Precintos</v>
+      </c>
+      <c r="T16" s="5"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -5951,8 +6460,10 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -5970,11 +6481,14 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T17" s="5"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -5983,8 +6497,10 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -6002,11 +6518,14 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T18" s="5"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -6015,8 +6534,10 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -6034,11 +6555,14 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T19" s="5"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -6047,8 +6571,10 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -6066,11 +6592,14 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T20" s="5"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -6079,8 +6608,10 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -6098,11 +6629,14 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T21" s="5"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -6111,8 +6645,10 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -6130,11 +6666,14 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T22" s="5"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -6143,8 +6682,10 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>17</v>
       </c>
@@ -6162,11 +6703,14 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T23" s="5"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -6175,8 +6719,10 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>18</v>
       </c>
@@ -6194,11 +6740,14 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T24" s="5"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -6207,8 +6756,10 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -6226,11 +6777,14 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T25" s="5"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -6239,8 +6793,10 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -6258,11 +6814,14 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0 Precintos</v>
+      </c>
+      <c r="T26" s="5"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -6271,8 +6830,10 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
@@ -6288,11 +6849,11 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -6301,8 +6862,10 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="41" t="s">
         <v>16</v>
@@ -6323,8 +6886,8 @@
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
@@ -6333,8 +6896,10 @@
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
@@ -6353,8 +6918,8 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -6363,11 +6928,11 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
@@ -6376,11 +6941,11 @@
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
@@ -6389,8 +6954,10 @@
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6403,8 +6970,6 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
@@ -6413,8 +6978,10 @@
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="C33" t="s">
         <v>17</v>
@@ -6431,8 +6998,6 @@
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -6441,8 +7006,10 @@
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
@@ -6458,11 +7025,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
@@ -6471,8 +7038,10 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -6488,11 +7057,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
@@ -6501,8 +7070,10 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
@@ -6518,11 +7089,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
@@ -6531,34 +7102,36 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:R2"/>
-    <mergeCell ref="S1:AB6"/>
+    <mergeCell ref="M1:T2"/>
+    <mergeCell ref="U1:AD6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:R29"/>
+    <mergeCell ref="E28:T29"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:P6"/>
+    <mergeCell ref="K5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" fitToWidth="0" orientation="landscape" r:id="rId1"/>
